--- a/table/model.avg/abu_env_model.avg.xlsx
+++ b/table/model.avg/abu_env_model.avg.xlsx
@@ -410,25 +410,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="C2">
-        <v>0.09693631833882659</v>
+        <v>0.0969363183388267</v>
       </c>
       <c r="D2">
-        <v>-0.06316641210788462</v>
+        <v>-0.06316641210788465</v>
       </c>
       <c r="E2">
-        <v>-0.1542072385711457</v>
+        <v>-0.1542072385711458</v>
       </c>
       <c r="F2">
-        <v>-0.006000741109019167</v>
+        <v>-0.006000741109019161</v>
       </c>
       <c r="G2">
-        <v>0.005756417639303241</v>
+        <v>0.005756417639303246</v>
       </c>
       <c r="H2">
-        <v>0.01729460343175111</v>
+        <v>0.01729460343175112</v>
       </c>
     </row>
     <row r="3">
@@ -438,22 +438,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="C3">
-        <v>0.10544705115821</v>
+        <v>0.1054470511582101</v>
       </c>
       <c r="D3">
-        <v>-0.0687122432867643</v>
+        <v>-0.06871224328676433</v>
       </c>
       <c r="E3">
-        <v>-0.1542072385711457</v>
+        <v>-0.1542072385711458</v>
       </c>
       <c r="F3">
-        <v>-0.07434852769303145</v>
+        <v>-0.07434852769303138</v>
       </c>
       <c r="G3">
-        <v>0.0713213865575924</v>
+        <v>0.07132138655759247</v>
       </c>
       <c r="H3">
         <v>0.214278249773671</v>
@@ -514,10 +514,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>36.95395391183372</v>
+        <v>36.95395391183371</v>
       </c>
       <c r="D2">
-        <v>-61.68568560144522</v>
+        <v>-61.68568560144519</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>36.02550121678685</v>
+        <v>36.02550121678684</v>
       </c>
       <c r="D3">
-        <v>-56.82023320280447</v>
+        <v>-56.82023320280445</v>
       </c>
       <c r="E3">
         <v>4.865452398640748</v>
@@ -685,16 +685,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="C2">
-        <v>0.01471986307418917</v>
+        <v>0.01471986307418918</v>
       </c>
       <c r="D2">
         <v>0.01536232702330405</v>
       </c>
       <c r="E2">
-        <v>254.8269566982148</v>
+        <v>254.8269566982146</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.09693631833882659</v>
+        <v>0.0969363183388267</v>
       </c>
       <c r="C3">
-        <v>0.03278598896246755</v>
+        <v>0.03278598896246758</v>
       </c>
       <c r="D3">
-        <v>0.03312309044598077</v>
+        <v>0.03312309044598081</v>
       </c>
       <c r="E3">
         <v>2.926548128017114</v>
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.06316641210788462</v>
+        <v>-0.06316641210788465</v>
       </c>
       <c r="C4">
-        <v>0.02479315847289603</v>
+        <v>0.02479315847289604</v>
       </c>
       <c r="D4">
-        <v>0.0252627196242162</v>
+        <v>0.02526271962421621</v>
       </c>
       <c r="E4">
         <v>2.500380523058765</v>
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.1542072385711457</v>
+        <v>-0.1542072385711458</v>
       </c>
       <c r="C5">
-        <v>0.05013242002889415</v>
+        <v>0.05013242002889413</v>
       </c>
       <c r="D5">
-        <v>0.05049832241726444</v>
+        <v>0.05049832241726443</v>
       </c>
       <c r="E5">
-        <v>3.053710127178901</v>
+        <v>3.053710127178903</v>
       </c>
       <c r="F5">
         <v>0.0022603</v>
@@ -773,16 +773,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.006000741109019167</v>
+        <v>-0.006000741109019161</v>
       </c>
       <c r="C6">
-        <v>0.02235768961682836</v>
+        <v>0.02235768961682835</v>
       </c>
       <c r="D6">
-        <v>0.02254211636964863</v>
+        <v>0.02254211636964861</v>
       </c>
       <c r="E6">
-        <v>0.2662013189275672</v>
+        <v>0.266201318927567</v>
       </c>
       <c r="F6">
         <v>0.7900842</v>
@@ -795,13 +795,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.005756417639303241</v>
+        <v>0.005756417639303246</v>
       </c>
       <c r="C7">
-        <v>0.020699216069466</v>
+        <v>0.02069921606946602</v>
       </c>
       <c r="D7">
-        <v>0.02081268024889156</v>
+        <v>0.02081268024889158</v>
       </c>
       <c r="E7">
         <v>0.2765822359477135</v>
@@ -817,13 +817,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.01729460343175111</v>
+        <v>0.01729460343175112</v>
       </c>
       <c r="C8">
-        <v>0.0596362736739266</v>
+        <v>0.05963627367392661</v>
       </c>
       <c r="D8">
-        <v>0.05975201441183736</v>
+        <v>0.05975201441183737</v>
       </c>
       <c r="E8">
         <v>0.2894396716493781</v>
@@ -884,16 +884,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>3.914735043151314</v>
+        <v>3.914735043151315</v>
       </c>
       <c r="C2">
-        <v>0.01471986307418917</v>
+        <v>0.01471986307418918</v>
       </c>
       <c r="D2">
         <v>0.01536232702330405</v>
       </c>
       <c r="E2">
-        <v>254.8269566982148</v>
+        <v>254.8269566982146</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -906,13 +906,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.10544705115821</v>
+        <v>0.1054470511582101</v>
       </c>
       <c r="C3">
-        <v>0.01648831112064237</v>
+        <v>0.01648831112064238</v>
       </c>
       <c r="D3">
-        <v>0.01720561342894151</v>
+        <v>0.01720561342894153</v>
       </c>
       <c r="E3">
         <v>6.128642352317286</v>
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.0687122432867643</v>
+        <v>-0.06871224328676433</v>
       </c>
       <c r="C4">
-        <v>0.01695886724390487</v>
+        <v>0.01695886724390488</v>
       </c>
       <c r="D4">
-        <v>0.01769664047799689</v>
+        <v>0.0176966404779969</v>
       </c>
       <c r="E4">
         <v>3.882784609440285</v>
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.1542072385711457</v>
+        <v>-0.1542072385711458</v>
       </c>
       <c r="C5">
-        <v>0.05013242002889415</v>
+        <v>0.05013242002889413</v>
       </c>
       <c r="D5">
-        <v>0.05049832241726444</v>
+        <v>0.05049832241726443</v>
       </c>
       <c r="E5">
-        <v>3.053710127178901</v>
+        <v>3.053710127178903</v>
       </c>
       <c r="F5">
         <v>0.0022603</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.07434852769303145</v>
+        <v>-0.07434852769303138</v>
       </c>
       <c r="C6">
         <v>0.03334263689227554</v>
@@ -981,7 +981,7 @@
         <v>0.03484721968115688</v>
       </c>
       <c r="E6">
-        <v>2.133556948683465</v>
+        <v>2.133556948683463</v>
       </c>
       <c r="F6">
         <v>0.03287907</v>
@@ -994,13 +994,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.0713213865575924</v>
+        <v>0.07132138655759247</v>
       </c>
       <c r="C7">
-        <v>0.02514672460525628</v>
+        <v>0.0251467246052563</v>
       </c>
       <c r="D7">
-        <v>0.02628146776189524</v>
+        <v>0.02628146776189526</v>
       </c>
       <c r="E7">
         <v>2.71375203256339</v>
@@ -1019,16 +1019,16 @@
         <v>0.214278249773671</v>
       </c>
       <c r="C8">
-        <v>0.04307147421640981</v>
+        <v>0.04307147421640983</v>
       </c>
       <c r="D8">
-        <v>0.04501506970968556</v>
+        <v>0.04501506970968558</v>
       </c>
       <c r="E8">
         <v>4.760144794967768</v>
       </c>
       <c r="F8">
-        <v>1.93e-006</v>
+        <v>1.93e-06</v>
       </c>
     </row>
   </sheetData>
